--- a/tiến độ/tiến độ.xlsx
+++ b/tiến độ/tiến độ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DH_CNDA\DACN1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DH_CNDA\DACN1\DACN1\tiến độ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A0097D-6F88-44DC-A71A-73059C74108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4912FD8F-65BD-418D-BD94-1972D1B04E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,36 +55,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{B8F08C85-6CA6-4664-9007-2CC4075258D5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Lê Đăng Chiến:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-không cần</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>tên chức năng</t>
   </si>
@@ -237,9 +213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -248,6 +221,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +508,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.296875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -541,19 +517,19 @@
     <col min="2" max="2" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="3" customWidth="1"/>
     <col min="6" max="8" width="8.296875" style="1"/>
     <col min="14" max="16384" width="8.296875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -568,7 +544,7 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -582,7 +558,7 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -596,7 +572,7 @@
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -610,7 +586,7 @@
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -624,7 +600,7 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -641,7 +617,7 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -658,7 +634,7 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -667,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -675,7 +651,7 @@
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -686,13 +662,10 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -706,7 +679,7 @@
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -733,17 +706,17 @@
     <col min="2" max="2" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -758,7 +731,7 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/tiến độ/tiến độ.xlsx
+++ b/tiến độ/tiến độ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DH_CNDA\DACN1\DACN1\tiến độ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4912FD8F-65BD-418D-BD94-1972D1B04E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8C869C-11CA-4E59-A714-A79409D3509D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.296875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/tiến độ/tiến độ.xlsx
+++ b/tiến độ/tiến độ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DH_CNDA\DACN1\DACN1\tiến độ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8C869C-11CA-4E59-A714-A79409D3509D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E871E3-E5A0-493D-9685-4AB966CF1D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="24" windowWidth="9312" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>tên chức năng</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>/sale/product/info/:idSP</t>
+  </si>
+  <si>
+    <t>xem giỏ hàng</t>
+  </si>
+  <si>
+    <t>/cart/product</t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.296875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -681,6 +687,23 @@
       </c>
       <c r="E11" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tiến độ/tiến độ.xlsx
+++ b/tiến độ/tiến độ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DH_CNDA\DACN1\DACN1\tiến độ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E871E3-E5A0-493D-9685-4AB966CF1D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A338A93E-FAF7-4049-AED5-F00254867C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="24" windowWidth="9312" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,42 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Lê Đăng Chiến</author>
-  </authors>
-  <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{0C2EC9D3-0E1C-4A2E-A53F-A06B6EFF490F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Lê Đăng Chiến:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-fetch</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>tên chức năng</t>
   </si>
@@ -153,32 +119,34 @@
   </si>
   <si>
     <t>/cart/product</t>
+  </si>
+  <si>
+    <t>/login/register</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> đăng ký </t>
+  </si>
+  <si>
+    <t>hiện comment sản phẩm</t>
+  </si>
+  <si>
+    <t>cập nhật giỏ hàng</t>
+  </si>
+  <si>
+    <t>/cart/update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -222,10 +190,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -510,11 +478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.296875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -561,6 +529,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
@@ -570,83 +541,69 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -658,52 +615,123 @@
         <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +739,6 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
